--- a/data/trans_orig/P74A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8DAA64-03A2-4BEC-B1D3-B3937086AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68CDB40B-A54E-47C9-9079-370BD2732B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{845453D6-2A2B-4EDB-A4E0-F69BBF275EFB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37484EF9-21F9-4FED-ADAF-6BEF43EB4D56}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1324,1870 +1324,1870 @@
     <t>1,82%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>6,18%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2015 (Tasa respuesta: 61,82%)</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2015 (Tasa respuesta: 61,82%)</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>56,82%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C6AEF6-55AB-4FD5-A799-4BD4B92CCEA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4797C23-8D0E-4642-84B0-2A355C9FDC49}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7884,7 +7884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78216C41-31FB-4043-BDDC-90CAB62B0600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD32A4E-10DC-47A2-B84C-854AE3EB24B6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8451,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8481,13 @@
         <v>11259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -8496,13 +8496,13 @@
         <v>11259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8517,13 @@
         <v>3903</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8538,7 +8538,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -8547,13 +8547,13 @@
         <v>4901</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8568,13 @@
         <v>184342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8589,7 +8589,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -8598,13 +8598,13 @@
         <v>185436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,13 +8619,13 @@
         <v>10276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -8634,13 +8634,13 @@
         <v>81061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -8652,10 +8652,10 @@
         <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,7 +8676,7 @@
         <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8700,13 +8700,13 @@
         <v>2875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8721,13 @@
         <v>35471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -8736,13 +8736,13 @@
         <v>51137</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -8751,13 +8751,13 @@
         <v>86608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8772,13 @@
         <v>100525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -8787,13 +8787,13 @@
         <v>202195</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>277</v>
@@ -8802,13 +8802,13 @@
         <v>302720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,13 +8927,13 @@
         <v>1973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -8963,7 +8963,7 @@
         <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8984,7 +8984,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9029,13 +9029,13 @@
         <v>96776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9044,13 +9044,13 @@
         <v>2946</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -9059,13 +9059,13 @@
         <v>99721</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,13 +9080,13 @@
         <v>11089</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -9095,13 +9095,13 @@
         <v>43730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -9110,13 +9110,13 @@
         <v>54819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9182,13 +9182,13 @@
         <v>28872</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -9197,13 +9197,13 @@
         <v>20817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -9212,13 +9212,13 @@
         <v>49690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,13 +9233,13 @@
         <v>58560</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -9248,13 +9248,13 @@
         <v>139228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M29" s="7">
         <v>187</v>
@@ -9263,13 +9263,13 @@
         <v>197788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9337,13 +9337,13 @@
         <v>4990</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>378</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -9352,13 +9352,13 @@
         <v>1857</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -9370,10 +9370,10 @@
         <v>381</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9391,10 +9391,10 @@
         <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -9403,13 +9403,13 @@
         <v>10056</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -9418,13 +9418,13 @@
         <v>15355</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>515</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9439,13 +9439,13 @@
         <v>3069</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>516</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -9454,13 +9454,13 @@
         <v>2001</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>517</v>
+        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -9472,10 +9472,10 @@
         <v>518</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,7 +9547,7 @@
         <v>526</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="H35" s="7">
         <v>95</v>
@@ -9556,13 +9556,13 @@
         <v>101042</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M35" s="7">
         <v>122</v>
@@ -9571,13 +9571,13 @@
         <v>132142</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,7 +9706,7 @@
         <v>256</v>
       </c>
       <c r="I38" s="7">
-        <v>277671</v>
+        <v>277670</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>545</v>
@@ -9727,10 +9727,10 @@
         <v>548</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>549</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,7 +9757,7 @@
         <v>410</v>
       </c>
       <c r="I39" s="7">
-        <v>444988</v>
+        <v>444987</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>62</v>
@@ -9804,7 +9804,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9864,13 +9864,13 @@
         <v>3970</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9879,13 +9879,13 @@
         <v>4985</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>555</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9906,7 +9906,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10005,10 +10005,10 @@
         <v>562</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>367</v>
+        <v>563</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>95</v>
+        <v>564</v>
       </c>
       <c r="H44" s="7">
         <v>36</v>
@@ -10017,13 +10017,13 @@
         <v>38115</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>565</v>
+        <v>416</v>
       </c>
       <c r="M44" s="7">
         <v>45</v>
@@ -10032,13 +10032,13 @@
         <v>49361</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,7 +10059,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,13 +10104,13 @@
         <v>14895</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H46" s="7">
         <v>21</v>
@@ -10119,13 +10119,13 @@
         <v>22003</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -10137,10 +10137,10 @@
         <v>401</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10155,13 +10155,13 @@
         <v>53743</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H47" s="7">
         <v>72</v>
@@ -10170,13 +10170,13 @@
         <v>75729</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M47" s="7">
         <v>121</v>
@@ -10185,13 +10185,13 @@
         <v>129472</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10316,7 +10316,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10325,13 +10325,13 @@
         <v>4036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>169</v>
+        <v>518</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -10340,13 +10340,13 @@
         <v>4888</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>254</v>
+        <v>592</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>444</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,7 +10367,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -10376,13 +10376,13 @@
         <v>1880</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>591</v>
+        <v>428</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -10397,7 +10397,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10412,13 +10412,13 @@
         <v>87234</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>87234</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10463,13 +10463,13 @@
         <v>10378</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>601</v>
+        <v>46</v>
       </c>
       <c r="H53" s="7">
         <v>44</v>
@@ -10478,13 +10478,13 @@
         <v>44896</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M53" s="7">
         <v>54</v>
@@ -10496,10 +10496,10 @@
         <v>402</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10565,13 +10565,13 @@
         <v>20443</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H55" s="7">
         <v>37</v>
@@ -10580,13 +10580,13 @@
         <v>38187</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="M55" s="7">
         <v>55</v>
@@ -10595,13 +10595,13 @@
         <v>58630</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10616,13 +10616,13 @@
         <v>59252</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H56" s="7">
         <v>87</v>
@@ -10631,13 +10631,13 @@
         <v>90806</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M56" s="7">
         <v>142</v>
@@ -10646,13 +10646,13 @@
         <v>150058</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10726,7 +10726,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10777,7 +10777,7 @@
         <v>378</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>626</v>
+        <v>207</v>
       </c>
       <c r="H59" s="7">
         <v>10</v>
@@ -10786,13 +10786,13 @@
         <v>11503</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>517</v>
+        <v>68</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
@@ -10801,13 +10801,13 @@
         <v>14492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>629</v>
+        <v>16</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10825,7 +10825,7 @@
         <v>631</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>632</v>
@@ -10837,7 +10837,7 @@
         <v>1889</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>12</v>
@@ -10855,7 +10855,7 @@
         <v>634</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>169</v>
+        <v>391</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>635</v>
@@ -10990,13 +10990,13 @@
         <v>2319</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -11044,10 +11044,10 @@
         <v>656</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M64" s="7">
         <v>108</v>
@@ -11056,13 +11056,13 @@
         <v>119422</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11077,13 +11077,13 @@
         <v>161653</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H65" s="7">
         <v>239</v>
@@ -11092,13 +11092,13 @@
         <v>260530</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M65" s="7">
         <v>384</v>
@@ -11107,13 +11107,13 @@
         <v>422183</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11187,7 +11187,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>119</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="H68" s="7">
         <v>13</v>
@@ -11247,13 +11247,13 @@
         <v>15149</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M68" s="7">
         <v>17</v>
@@ -11265,10 +11265,10 @@
         <v>163</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -11289,7 +11289,7 @@
         <v>360</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -11304,7 +11304,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>34</v>
+        <v>675</v>
       </c>
       <c r="M69" s="7">
         <v>5</v>
@@ -11319,7 +11319,7 @@
         <v>360</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>436</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -11334,13 +11334,13 @@
         <v>225430</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -11364,13 +11364,13 @@
         <v>225430</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>679</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11385,10 +11385,10 @@
         <v>22029</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>681</v>
+        <v>320</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>682</v>
@@ -11406,7 +11406,7 @@
         <v>684</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="M71" s="7">
         <v>137</v>
@@ -11415,13 +11415,13 @@
         <v>150266</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>41</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -11442,7 +11442,7 @@
         <v>360</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>78</v>
+        <v>689</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>359</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>333</v>
+        <v>690</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>687</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11487,13 +11487,13 @@
         <v>69723</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H73" s="7">
         <v>58</v>
@@ -11502,13 +11502,13 @@
         <v>64727</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>40</v>
+        <v>694</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="M73" s="7">
         <v>120</v>
@@ -11517,10 +11517,10 @@
         <v>134450</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>560</v>
@@ -11538,13 +11538,13 @@
         <v>165939</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H74" s="7">
         <v>285</v>
@@ -11553,13 +11553,13 @@
         <v>309728</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M74" s="7">
         <v>437</v>
@@ -11568,13 +11568,13 @@
         <v>475667</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -11645,10 +11645,10 @@
         <v>17</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="H76" s="7">
         <v>3</v>
@@ -11657,13 +11657,13 @@
         <v>3932</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
@@ -11696,10 +11696,10 @@
         <v>72</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="H77" s="7">
         <v>49</v>
@@ -11708,13 +11708,13 @@
         <v>57892</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>207</v>
+        <v>712</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M77" s="7">
         <v>64</v>
@@ -11726,10 +11726,10 @@
         <v>342</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>385</v>
+        <v>628</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -11750,7 +11750,7 @@
         <v>23</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -11759,13 +11759,13 @@
         <v>9686</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>360</v>
+        <v>708</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="M78" s="7">
         <v>28</v>
@@ -11777,10 +11777,10 @@
         <v>14</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>122</v>
+        <v>517</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>470</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -11795,13 +11795,13 @@
         <v>963451</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
@@ -11816,7 +11816,7 @@
         <v>403</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>293</v>
+        <v>592</v>
       </c>
       <c r="M79" s="7">
         <v>906</v>
@@ -11825,13 +11825,13 @@
         <v>967490</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -11846,13 +11846,13 @@
         <v>124428</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>408</v>
+        <v>722</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>98</v>
+        <v>723</v>
       </c>
       <c r="H80" s="7">
         <v>502</v>
@@ -11861,13 +11861,13 @@
         <v>539615</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="M80" s="7">
         <v>612</v>
@@ -11876,13 +11876,13 @@
         <v>664043</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>184</v>
+        <v>728</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>720</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -11900,10 +11900,10 @@
         <v>66</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>23</v>
+        <v>426</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
@@ -11912,13 +11912,13 @@
         <v>3311</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="M81" s="7">
         <v>10</v>
@@ -11930,10 +11930,10 @@
         <v>378</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -11948,13 +11948,13 @@
         <v>280759</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="H82" s="7">
         <v>292</v>
@@ -11963,13 +11963,13 @@
         <v>317195</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="M82" s="7">
         <v>552</v>
@@ -11978,13 +11978,13 @@
         <v>597954</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -11999,28 +11999,28 @@
         <v>792692</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="H83" s="7">
         <v>1250</v>
       </c>
       <c r="I83" s="7">
-        <v>1355885</v>
+        <v>1355886</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="M83" s="7">
         <v>1983</v>
@@ -12029,13 +12029,13 @@
         <v>2148577</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -12062,7 +12062,7 @@
         <v>2110</v>
       </c>
       <c r="I84" s="7">
-        <v>2291555</v>
+        <v>2291556</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>62</v>
@@ -12115,7 +12115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88BE9DF-6C74-4DB1-ACEB-70502CF40A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE5FB75-6F83-407D-B1EB-3A50BF961D51}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12132,7 +12132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12260,7 +12260,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>742</v>
+        <v>593</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>743</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -12296,7 +12296,7 @@
         <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -12323,10 +12323,10 @@
         <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12347,7 +12347,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>681</v>
+        <v>158</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -12377,7 +12377,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -12395,10 +12395,10 @@
         <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -12425,10 +12425,10 @@
         <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12443,13 +12443,13 @@
         <v>9133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>750</v>
+        <v>526</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -12458,13 +12458,13 @@
         <v>31094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -12473,13 +12473,13 @@
         <v>40227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12545,13 +12545,13 @@
         <v>35893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -12560,13 +12560,13 @@
         <v>37290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>492</v>
+        <v>767</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -12575,13 +12575,13 @@
         <v>73183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>560</v>
+        <v>771</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12596,13 +12596,13 @@
         <v>89513</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -12611,13 +12611,13 @@
         <v>111355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="M11" s="7">
         <v>189</v>
@@ -12629,10 +12629,10 @@
         <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12721,7 +12721,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -12736,7 +12736,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12757,7 +12757,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>781</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -12766,13 +12766,13 @@
         <v>3866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -12781,13 +12781,13 @@
         <v>4795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12808,7 +12808,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12856,10 +12856,10 @@
         <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -12874,7 +12874,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>779</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -12883,13 +12883,13 @@
         <v>221092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12904,13 +12904,13 @@
         <v>7748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -12919,13 +12919,13 @@
         <v>98586</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>795</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -12934,13 +12934,13 @@
         <v>106334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>788</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12976,7 +12976,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>798</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -13006,13 +13006,13 @@
         <v>31780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -13021,13 +13021,13 @@
         <v>53346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -13036,13 +13036,13 @@
         <v>85126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>796</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>797</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -13057,13 +13057,13 @@
         <v>58905</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -13072,13 +13072,13 @@
         <v>173006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="M20" s="7">
         <v>220</v>
@@ -13087,13 +13087,13 @@
         <v>231911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -13176,13 +13176,13 @@
         <v>2086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>807</v>
+        <v>652</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>815</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -13197,7 +13197,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13218,7 +13218,7 @@
         <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -13233,7 +13233,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>774</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -13242,13 +13242,13 @@
         <v>4372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>810</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -13269,7 +13269,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -13284,7 +13284,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>351</v>
+        <v>635</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -13293,13 +13293,13 @@
         <v>1874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -13314,13 +13314,13 @@
         <v>90377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -13344,13 +13344,13 @@
         <v>90377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -13365,13 +13365,13 @@
         <v>11487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>818</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>320</v>
+        <v>824</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -13380,13 +13380,13 @@
         <v>48783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -13395,13 +13395,13 @@
         <v>60269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -13437,7 +13437,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>825</v>
+        <v>289</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -13452,7 +13452,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>826</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -13467,13 +13467,13 @@
         <v>40453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>726</v>
+        <v>832</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -13482,13 +13482,13 @@
         <v>25023</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>831</v>
+        <v>491</v>
       </c>
       <c r="M28" s="7">
         <v>68</v>
@@ -13497,13 +13497,13 @@
         <v>65476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>39</v>
+        <v>837</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>833</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13518,13 +13518,13 @@
         <v>70731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -13533,13 +13533,13 @@
         <v>118397</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="M29" s="7">
         <v>192</v>
@@ -13548,13 +13548,13 @@
         <v>189128</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13628,7 +13628,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -13652,13 +13652,13 @@
         <v>827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -13679,7 +13679,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>845</v>
+        <v>629</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -13688,13 +13688,13 @@
         <v>7231</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>846</v>
+        <v>782</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>847</v>
+        <v>628</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>44</v>
+        <v>850</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -13706,10 +13706,10 @@
         <v>249</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13727,10 +13727,10 @@
         <v>246</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -13745,7 +13745,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>471</v>
+        <v>854</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -13757,10 +13757,10 @@
         <v>131</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>850</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13775,13 +13775,13 @@
         <v>80397</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -13805,13 +13805,13 @@
         <v>80398</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>855</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13826,13 +13826,13 @@
         <v>22802</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>858</v>
+        <v>44</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -13841,13 +13841,13 @@
         <v>77992</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M35" s="7">
         <v>91</v>
@@ -13856,13 +13856,13 @@
         <v>100794</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>865</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13883,7 +13883,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>866</v>
+        <v>629</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>867</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13928,13 +13928,13 @@
         <v>55997</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>868</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -13943,13 +13943,13 @@
         <v>42262</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>871</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>873</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -13958,13 +13958,13 @@
         <v>98260</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>876</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13979,13 +13979,13 @@
         <v>87221</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H38" s="7">
         <v>116</v>
@@ -13994,13 +13994,13 @@
         <v>120295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="M38" s="7">
         <v>195</v>
@@ -14009,13 +14009,13 @@
         <v>207516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -14083,13 +14083,13 @@
         <v>1511</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>886</v>
+        <v>674</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -14104,7 +14104,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>431</v>
+        <v>884</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -14113,13 +14113,13 @@
         <v>2425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>889</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -14134,13 +14134,13 @@
         <v>2067</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>890</v>
+        <v>441</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>672</v>
+        <v>886</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -14155,7 +14155,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>891</v>
+        <v>167</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -14170,7 +14170,7 @@
         <v>206</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>482</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -14206,7 +14206,7 @@
         <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>434</v>
+        <v>628</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -14221,7 +14221,7 @@
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -14236,13 +14236,13 @@
         <v>52434</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>127</v>
+        <v>889</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>473</v>
+        <v>890</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -14257,7 +14257,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>434</v>
+        <v>628</v>
       </c>
       <c r="M43" s="7">
         <v>55</v>
@@ -14266,13 +14266,13 @@
         <v>52434</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>895</v>
+        <v>492</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -14287,13 +14287,13 @@
         <v>6093</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>898</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -14302,13 +14302,13 @@
         <v>44373</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -14317,13 +14317,13 @@
         <v>50466</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>714</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -14344,7 +14344,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>905</v>
+        <v>139</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -14359,7 +14359,7 @@
         <v>20</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>434</v>
+        <v>628</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -14368,13 +14368,13 @@
         <v>888</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>907</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -14392,10 +14392,10 @@
         <v>683</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="H46" s="7">
         <v>33</v>
@@ -14404,13 +14404,13 @@
         <v>30592</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M46" s="7">
         <v>65</v>
@@ -14419,13 +14419,13 @@
         <v>62502</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>575</v>
+        <v>907</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>914</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -14440,13 +14440,13 @@
         <v>34636</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>835</v>
+        <v>909</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="H47" s="7">
         <v>76</v>
@@ -14455,13 +14455,13 @@
         <v>72527</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>377</v>
+        <v>914</v>
       </c>
       <c r="M47" s="7">
         <v>108</v>
@@ -14470,13 +14470,13 @@
         <v>107164</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -14550,7 +14550,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -14565,7 +14565,7 @@
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -14601,7 +14601,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -14616,7 +14616,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>923</v>
+        <v>116</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -14631,7 +14631,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>590</v>
+        <v>919</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14652,7 +14652,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>515</v>
+        <v>920</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -14667,7 +14667,7 @@
         <v>20</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14697,13 +14697,13 @@
         <v>95153</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -14718,7 +14718,7 @@
         <v>20</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M52" s="7">
         <v>96</v>
@@ -14727,13 +14727,13 @@
         <v>95153</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -14748,13 +14748,13 @@
         <v>4042</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>290</v>
+        <v>64</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H53" s="7">
         <v>49</v>
@@ -14763,13 +14763,13 @@
         <v>54289</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="M53" s="7">
         <v>53</v>
@@ -14778,13 +14778,13 @@
         <v>58331</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>935</v>
+        <v>612</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14805,7 +14805,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -14820,7 +14820,7 @@
         <v>20</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -14850,13 +14850,13 @@
         <v>5889</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>434</v>
+        <v>710</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H55" s="7">
         <v>18</v>
@@ -14865,13 +14865,13 @@
         <v>19405</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="M55" s="7">
         <v>24</v>
@@ -14880,13 +14880,13 @@
         <v>25295</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>672</v>
+        <v>939</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14901,13 +14901,13 @@
         <v>56643</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>486</v>
+        <v>942</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H56" s="7">
         <v>93</v>
@@ -14916,13 +14916,13 @@
         <v>93728</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>946</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>948</v>
       </c>
       <c r="M56" s="7">
         <v>147</v>
@@ -14931,13 +14931,13 @@
         <v>150371</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>949</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -15011,7 +15011,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>952</v>
+        <v>712</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -15041,7 +15041,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -15077,7 +15077,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>340</v>
+        <v>950</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -15086,13 +15086,13 @@
         <v>1006</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>287</v>
+        <v>951</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -15110,10 +15110,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -15128,7 +15128,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>626</v>
+        <v>712</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -15140,10 +15140,10 @@
         <v>168</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -15158,13 +15158,13 @@
         <v>190075</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>956</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -15209,13 +15209,13 @@
         <v>10850</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>433</v>
+        <v>961</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H62" s="7">
         <v>78</v>
@@ -15224,13 +15224,13 @@
         <v>90818</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M62" s="7">
         <v>88</v>
@@ -15239,13 +15239,13 @@
         <v>101668</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>968</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -15281,7 +15281,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>550</v>
+        <v>211</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -15290,13 +15290,13 @@
         <v>1067</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -15317,7 +15317,7 @@
         <v>970</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>660</v>
+        <v>971</v>
       </c>
       <c r="H64" s="7">
         <v>44</v>
@@ -15326,13 +15326,13 @@
         <v>46138</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M64" s="7">
         <v>83</v>
@@ -15341,13 +15341,13 @@
         <v>93038</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -15362,13 +15362,13 @@
         <v>135921</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>38</v>
+        <v>979</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H65" s="7">
         <v>206</v>
@@ -15377,13 +15377,13 @@
         <v>211696</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>149</v>
+        <v>983</v>
       </c>
       <c r="M65" s="7">
         <v>323</v>
@@ -15392,13 +15392,13 @@
         <v>347616</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -15472,7 +15472,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
@@ -15484,10 +15484,10 @@
         <v>379</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="M67" s="7">
         <v>5</v>
@@ -15496,13 +15496,13 @@
         <v>5116</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>250</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -15523,7 +15523,7 @@
         <v>77</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -15535,10 +15535,10 @@
         <v>273</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>518</v>
+        <v>23</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="M68" s="7">
         <v>11</v>
@@ -15550,10 +15550,10 @@
         <v>385</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>987</v>
+        <v>887</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -15568,13 +15568,13 @@
         <v>5052</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>591</v>
+        <v>428</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>751</v>
+        <v>289</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>673</v>
+        <v>384</v>
       </c>
       <c r="M69" s="7">
         <v>6</v>
@@ -15604,7 +15604,7 @@
         <v>77</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>83</v>
+        <v>991</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -15619,13 +15619,13 @@
         <v>196728</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>990</v>
+        <v>129</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -15649,13 +15649,13 @@
         <v>197813</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -15670,13 +15670,13 @@
         <v>20690</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H71" s="7">
         <v>103</v>
@@ -15685,13 +15685,13 @@
         <v>123496</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="M71" s="7">
         <v>124</v>
@@ -15700,13 +15700,13 @@
         <v>144186</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -15775,10 +15775,10 @@
         <v>91</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="H73" s="7">
         <v>52</v>
@@ -15787,13 +15787,13 @@
         <v>54325</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="M73" s="7">
         <v>138</v>
@@ -15802,13 +15802,13 @@
         <v>143771</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -15823,13 +15823,13 @@
         <v>164910</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H74" s="7">
         <v>294</v>
@@ -15838,13 +15838,13 @@
         <v>312797</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1015</v>
+        <v>203</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M74" s="7">
         <v>448</v>
@@ -15853,10 +15853,10 @@
         <v>477706</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>1019</v>
@@ -15930,10 +15930,10 @@
         <v>510</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>333</v>
+        <v>707</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="H76" s="7">
         <v>9</v>
@@ -15945,10 +15945,10 @@
         <v>296</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="M76" s="7">
         <v>14</v>
@@ -15963,7 +15963,7 @@
         <v>159</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -15981,10 +15981,10 @@
         <v>168</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>517</v>
+        <v>919</v>
       </c>
       <c r="H77" s="7">
         <v>22</v>
@@ -15993,13 +15993,13 @@
         <v>22685</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>807</v>
+        <v>652</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>892</v>
+        <v>383</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>440</v>
+        <v>1020</v>
       </c>
       <c r="M77" s="7">
         <v>37</v>
@@ -16011,10 +16011,10 @@
         <v>117</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>14</v>
+        <v>383</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -16032,10 +16032,10 @@
         <v>161</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>634</v>
+        <v>385</v>
       </c>
       <c r="H78" s="7">
         <v>5</v>
@@ -16050,7 +16050,7 @@
         <v>333</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M78" s="7">
         <v>22</v>
@@ -16059,13 +16059,13 @@
         <v>22420</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>651</v>
+        <v>592</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>381</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -16080,13 +16080,13 @@
         <v>977852</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         <v>403</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>450</v>
+        <v>296</v>
       </c>
       <c r="M79" s="7">
         <v>950</v>
@@ -16110,13 +16110,13 @@
         <v>981146</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>1026</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -16134,10 +16134,10 @@
         <v>33</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>1027</v>
+        <v>851</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>818</v>
+        <v>272</v>
       </c>
       <c r="H80" s="7">
         <v>497</v>
@@ -16146,13 +16146,13 @@
         <v>569431</v>
       </c>
       <c r="J80" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="L80" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>1030</v>
       </c>
       <c r="M80" s="7">
         <v>593</v>
@@ -16161,13 +16161,13 @@
         <v>662276</v>
       </c>
       <c r="O80" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P80" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="Q80" s="7" t="s">
         <v>1032</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -16182,13 +16182,13 @@
         <v>2795</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>849</v>
+        <v>162</v>
       </c>
       <c r="H81" s="7">
         <v>4</v>
@@ -16203,7 +16203,7 @@
         <v>403</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="M81" s="7">
         <v>7</v>
@@ -16212,13 +16212,13 @@
         <v>6716</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>405</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -16233,13 +16233,13 @@
         <v>338268</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>1035</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>1036</v>
       </c>
       <c r="H82" s="7">
         <v>299</v>
@@ -16248,13 +16248,13 @@
         <v>308383</v>
       </c>
       <c r="J82" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="K82" s="7" t="s">
-        <v>1038</v>
-      </c>
       <c r="L82" s="7" t="s">
-        <v>1039</v>
+        <v>858</v>
       </c>
       <c r="M82" s="7">
         <v>616</v>
@@ -16263,13 +16263,13 @@
         <v>646650</v>
       </c>
       <c r="O82" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q82" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q82" s="7" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -16284,7 +16284,7 @@
         <v>698479</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>557</v>
+        <v>1041</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>1042</v>
@@ -16311,7 +16311,7 @@
         <v>1822</v>
       </c>
       <c r="N83" s="7">
-        <v>1912280</v>
+        <v>1912281</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>1047</v>
@@ -16362,7 +16362,7 @@
         <v>4061</v>
       </c>
       <c r="N84" s="7">
-        <v>4286751</v>
+        <v>4286752</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>62</v>

--- a/data/trans_orig/P74A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2CF624-7EAC-4B20-9886-DAAB7E378BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7095ECC-68FF-450D-8882-68B089439650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A01A0A90-7477-43C9-82B5-263E65A62BEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ED03C53A-76B1-47AC-B88F-3E70A9A37D53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1077">
   <si>
     <t>Población según la situación laboral de su pareja en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -1315,15 +1315,132 @@
     <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
     <t>3,22%</t>
   </si>
   <si>
@@ -1513,9 +1630,6 @@
     <t>14,57%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
     <t>20,62%</t>
   </si>
   <si>
@@ -1564,1440 +1678,1410 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2016 (Tasa respuesta: 61,82%)</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2016 (Tasa respuesta: 61,82%)</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
     <t>2,84%</t>
   </si>
   <si>
@@ -3170,9 +3254,6 @@
   </si>
   <si>
     <t>34,63%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
   </si>
   <si>
     <t>54,65%</t>
@@ -3599,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7B9DB-6DC1-48BD-8A25-A8DA4BE3EB75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F44C170-DD23-4D36-858C-19C63C219A3A}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -7884,7 +7965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1873FE0-867E-4F75-A46B-2C760955D7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F106F778-ECB4-4760-A601-5DD3BCD69A05}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8002,43 +8083,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4990</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1857</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6847</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,43 +8134,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>986</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3193</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4178</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,43 +8185,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>895</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>982</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1877</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,43 +8236,49 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D7" s="7">
+        <v>48263</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="N7" s="7">
+        <v>48263</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,43 +8287,49 @@
         <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18899</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I8" s="7">
+        <v>38160</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="N8" s="7">
+        <v>57059</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,41 +8340,47 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>425</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,43 +8389,49 @@
         <v>43</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22437</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <v>25383</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="N10" s="7">
+        <v>47820</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,43 +8440,49 @@
         <v>52</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90077</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I11" s="7">
+        <v>119273</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="N11" s="7">
+        <v>209350</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,43 +8491,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="D12" s="7">
+        <v>186546</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="I12" s="7">
+        <v>188848</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="N12" s="7">
+        <v>375394</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8430,13 +8565,13 @@
         <v>2075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -8481,13 +8616,13 @@
         <v>11259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -8496,13 +8631,13 @@
         <v>11259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8652,13 @@
         <v>3903</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>362</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8538,7 +8673,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -8547,13 +8682,13 @@
         <v>4901</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8703,13 @@
         <v>184342</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -8589,7 +8724,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -8598,13 +8733,13 @@
         <v>185436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,7 +8754,7 @@
         <v>10276</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>273</v>
@@ -8634,13 +8769,13 @@
         <v>81061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -8652,10 +8787,10 @@
         <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,7 +8811,7 @@
         <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8700,10 +8835,10 @@
         <v>2875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>69</v>
@@ -8721,13 +8856,13 @@
         <v>35471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -8736,13 +8871,13 @@
         <v>51137</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -8751,13 +8886,13 @@
         <v>86608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8907,13 @@
         <v>100525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -8787,13 +8922,13 @@
         <v>202195</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
         <v>277</v>
@@ -8802,13 +8937,13 @@
         <v>302720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,13 +9062,13 @@
         <v>1973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8948,7 +9083,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -9029,13 +9164,13 @@
         <v>96776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -9044,13 +9179,13 @@
         <v>2946</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -9059,13 +9194,13 @@
         <v>99721</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9080,13 +9215,13 @@
         <v>11089</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -9095,13 +9230,13 @@
         <v>43730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -9110,13 +9245,13 @@
         <v>54819</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9182,13 +9317,13 @@
         <v>28872</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -9197,13 +9332,13 @@
         <v>20817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -9212,13 +9347,13 @@
         <v>49690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,13 +9368,13 @@
         <v>58560</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -9248,13 +9383,13 @@
         <v>139228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="M29" s="7">
         <v>187</v>
@@ -9263,13 +9398,13 @@
         <v>197788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9331,49 +9466,49 @@
         <v>10</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>4990</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>6847</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,49 +9517,49 @@
         <v>19</v>
       </c>
       <c r="C32" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>5299</v>
+        <v>4314</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>546</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>10056</v>
+        <v>6863</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>512</v>
+        <v>294</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="M32" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N32" s="7">
-        <v>15355</v>
+        <v>11177</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>338</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9433,49 +9568,49 @@
         <v>24</v>
       </c>
       <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1019</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="7">
         <v>3</v>
       </c>
-      <c r="D33" s="7">
-        <v>3069</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2001</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M33" s="7">
-        <v>5</v>
-      </c>
       <c r="N33" s="7">
-        <v>5070</v>
+        <v>3193</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>518</v>
+        <v>290</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>378</v>
+        <v>159</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9484,19 +9619,19 @@
         <v>25</v>
       </c>
       <c r="C34" s="7">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D34" s="7">
-        <v>132447</v>
+        <v>84185</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9511,22 +9646,22 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="M34" s="7">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="N34" s="7">
-        <v>132447</v>
+        <v>84185</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9535,49 +9670,49 @@
         <v>32</v>
       </c>
       <c r="C35" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>31100</v>
+        <v>12201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
       <c r="H35" s="7">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I35" s="7">
-        <v>101042</v>
+        <v>62882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="M35" s="7">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="N35" s="7">
-        <v>132142</v>
+        <v>75083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9598,7 +9733,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9613,7 +9748,7 @@
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9628,7 +9763,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9637,49 +9772,49 @@
         <v>43</v>
       </c>
       <c r="C37" s="7">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D37" s="7">
-        <v>59896</v>
+        <v>37458</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="H37" s="7">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I37" s="7">
-        <v>52361</v>
+        <v>26978</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="M37" s="7">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="N37" s="7">
-        <v>112257</v>
+        <v>64436</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,49 +9823,49 @@
         <v>52</v>
       </c>
       <c r="C38" s="7">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7">
-        <v>193018</v>
+        <v>102941</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="H38" s="7">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="I38" s="7">
-        <v>277671</v>
+        <v>158398</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="M38" s="7">
-        <v>435</v>
+        <v>243</v>
       </c>
       <c r="N38" s="7">
-        <v>470689</v>
+        <v>261339</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>582</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,10 +9874,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="D39" s="7">
-        <v>429820</v>
+        <v>243273</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>62</v>
@@ -9754,10 +9889,10 @@
         <v>62</v>
       </c>
       <c r="H39" s="7">
-        <v>410</v>
+        <v>242</v>
       </c>
       <c r="I39" s="7">
-        <v>444988</v>
+        <v>256140</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>62</v>
@@ -9769,10 +9904,10 @@
         <v>62</v>
       </c>
       <c r="M39" s="7">
-        <v>804</v>
+        <v>464</v>
       </c>
       <c r="N39" s="7">
-        <v>874807</v>
+        <v>499413</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>62</v>
@@ -9804,7 +9939,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9855,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9864,13 +9999,13 @@
         <v>3970</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -9879,13 +10014,13 @@
         <v>4985</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9906,7 +10041,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9951,13 +10086,13 @@
         <v>55976</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9981,13 +10116,13 @@
         <v>55976</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10002,7 +10137,7 @@
         <v>11247</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>367</v>
@@ -10017,13 +10152,13 @@
         <v>38115</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="M44" s="7">
         <v>45</v>
@@ -10032,13 +10167,13 @@
         <v>49361</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10059,7 +10194,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -10074,7 +10209,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -10089,7 +10224,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,13 +10239,13 @@
         <v>14895</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>571</v>
+        <v>445</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="H46" s="7">
         <v>21</v>
@@ -10119,13 +10254,13 @@
         <v>22003</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -10137,10 +10272,10 @@
         <v>401</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10155,13 +10290,13 @@
         <v>53743</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="H47" s="7">
         <v>72</v>
@@ -10170,13 +10305,13 @@
         <v>75729</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="M47" s="7">
         <v>121</v>
@@ -10185,13 +10320,13 @@
         <v>129472</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10316,7 +10451,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>587</v>
+        <v>433</v>
       </c>
       <c r="H50" s="7">
         <v>4</v>
@@ -10325,13 +10460,13 @@
         <v>4036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>169</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -10340,13 +10475,13 @@
         <v>4888</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>254</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,13 +10511,13 @@
         <v>1880</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -10397,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10412,13 +10547,13 @@
         <v>87234</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -10442,13 +10577,13 @@
         <v>87234</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10463,13 +10598,13 @@
         <v>10378</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>320</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="H53" s="7">
         <v>44</v>
@@ -10478,13 +10613,13 @@
         <v>44896</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="M53" s="7">
         <v>54</v>
@@ -10496,10 +10631,10 @@
         <v>402</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10565,13 +10700,13 @@
         <v>20443</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="H55" s="7">
         <v>37</v>
@@ -10580,13 +10715,13 @@
         <v>38187</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="M55" s="7">
         <v>55</v>
@@ -10595,13 +10730,13 @@
         <v>58630</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>615</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10616,13 +10751,13 @@
         <v>59252</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="H56" s="7">
         <v>87</v>
@@ -10631,13 +10766,13 @@
         <v>90806</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="M56" s="7">
         <v>142</v>
@@ -10646,13 +10781,13 @@
         <v>150058</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10726,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>625</v>
+        <v>430</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10777,7 +10912,7 @@
         <v>378</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="H59" s="7">
         <v>10</v>
@@ -10786,13 +10921,13 @@
         <v>11503</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>517</v>
+        <v>657</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
@@ -10801,13 +10936,13 @@
         <v>14492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10822,13 +10957,13 @@
         <v>8876</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -10837,13 +10972,13 @@
         <v>1889</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="M60" s="7">
         <v>10</v>
@@ -10852,13 +10987,13 @@
         <v>10766</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10873,13 +11008,13 @@
         <v>181245</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -10903,13 +11038,13 @@
         <v>181245</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10924,13 +11059,13 @@
         <v>28311</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="H62" s="7">
         <v>94</v>
@@ -10939,13 +11074,13 @@
         <v>102534</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="M62" s="7">
         <v>118</v>
@@ -10954,13 +11089,13 @@
         <v>130845</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10990,13 +11125,13 @@
         <v>2319</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>651</v>
+        <v>434</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -11011,7 +11146,7 @@
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11026,13 +11161,13 @@
         <v>51460</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="H64" s="7">
         <v>61</v>
@@ -11041,13 +11176,13 @@
         <v>67962</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>656</v>
+        <v>685</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>657</v>
+        <v>686</v>
       </c>
       <c r="M64" s="7">
         <v>108</v>
@@ -11056,13 +11191,13 @@
         <v>119422</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11077,13 +11212,13 @@
         <v>161653</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="H65" s="7">
         <v>239</v>
@@ -11092,13 +11227,13 @@
         <v>260530</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="M65" s="7">
         <v>384</v>
@@ -11107,13 +11242,13 @@
         <v>422183</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11187,7 +11322,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -11247,13 +11382,13 @@
         <v>15149</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="M68" s="7">
         <v>17</v>
@@ -11265,7 +11400,7 @@
         <v>163</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>407</v>
@@ -11289,7 +11424,7 @@
         <v>360</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -11319,7 +11454,7 @@
         <v>360</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -11334,13 +11469,13 @@
         <v>225430</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -11364,13 +11499,13 @@
         <v>225430</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11385,13 +11520,13 @@
         <v>22029</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="H71" s="7">
         <v>117</v>
@@ -11400,13 +11535,13 @@
         <v>128237</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="M71" s="7">
         <v>137</v>
@@ -11415,10 +11550,10 @@
         <v>150266</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="Q71" s="7" t="s">
         <v>41</v>
@@ -11472,7 +11607,7 @@
         <v>333</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11487,13 +11622,13 @@
         <v>69723</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="H73" s="7">
         <v>58</v>
@@ -11502,13 +11637,13 @@
         <v>64727</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="M73" s="7">
         <v>120</v>
@@ -11517,13 +11652,13 @@
         <v>134450</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -11538,13 +11673,13 @@
         <v>165939</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>695</v>
+        <v>724</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="H74" s="7">
         <v>285</v>
@@ -11553,13 +11688,13 @@
         <v>309728</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="M74" s="7">
         <v>437</v>
@@ -11568,13 +11703,13 @@
         <v>475667</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -11645,7 +11780,7 @@
         <v>17</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>381</v>
@@ -11657,10 +11792,10 @@
         <v>3932</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>298</v>
@@ -11699,7 +11834,7 @@
         <v>296</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="H77" s="7">
         <v>49</v>
@@ -11708,13 +11843,13 @@
         <v>57892</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="M77" s="7">
         <v>64</v>
@@ -11759,7 +11894,7 @@
         <v>9686</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>360</v>
@@ -11780,7 +11915,7 @@
         <v>122</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -11795,13 +11930,13 @@
         <v>963451</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>709</v>
+        <v>738</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
@@ -11825,13 +11960,13 @@
         <v>967490</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -11846,7 +11981,7 @@
         <v>124428</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>408</v>
@@ -11861,13 +11996,13 @@
         <v>539615</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="M80" s="7">
         <v>612</v>
@@ -11876,13 +12011,13 @@
         <v>664043</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>184</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>720</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -11900,7 +12035,7 @@
         <v>66</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>23</v>
@@ -11912,10 +12047,10 @@
         <v>3311</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>157</v>
@@ -11930,10 +12065,10 @@
         <v>378</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -11948,13 +12083,13 @@
         <v>280759</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>725</v>
+        <v>754</v>
       </c>
       <c r="H82" s="7">
         <v>292</v>
@@ -11963,13 +12098,13 @@
         <v>317195</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="M82" s="7">
         <v>552</v>
@@ -11978,13 +12113,13 @@
         <v>597954</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>729</v>
+        <v>758</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -11999,13 +12134,13 @@
         <v>792692</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="H83" s="7">
         <v>1250</v>
@@ -12014,13 +12149,13 @@
         <v>1355885</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="M83" s="7">
         <v>1983</v>
@@ -12029,13 +12164,13 @@
         <v>2148577</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -12115,7 +12250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FC2E05-90B8-4DEB-AADC-11E612F7C192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1950C1B-D4DD-42BD-B520-C08027F51AF4}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12132,7 +12267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12254,13 +12389,13 @@
         <v>1061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -12275,7 +12410,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -12296,7 +12431,7 @@
         <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -12326,7 +12461,7 @@
         <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12347,7 +12482,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -12395,10 +12530,10 @@
         <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -12425,10 +12560,10 @@
         <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12443,13 +12578,13 @@
         <v>9133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -12458,13 +12593,13 @@
         <v>31094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -12473,13 +12608,13 @@
         <v>40227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12545,13 +12680,13 @@
         <v>35893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>761</v>
+        <v>790</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -12560,13 +12695,13 @@
         <v>37290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -12575,13 +12710,13 @@
         <v>73183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -12596,13 +12731,13 @@
         <v>89513</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -12611,13 +12746,13 @@
         <v>111355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="M11" s="7">
         <v>189</v>
@@ -12626,13 +12761,13 @@
         <v>200868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>801</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12766,13 +12901,13 @@
         <v>3866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -12781,13 +12916,13 @@
         <v>4795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12856,10 +12991,10 @@
         <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -12874,7 +13009,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -12883,13 +13018,13 @@
         <v>221092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12904,13 +13039,13 @@
         <v>7748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -12919,10 +13054,10 @@
         <v>98586</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>54</v>
@@ -12934,13 +13069,13 @@
         <v>106334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -13006,13 +13141,13 @@
         <v>31780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -13021,13 +13156,13 @@
         <v>53346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -13036,13 +13171,13 @@
         <v>85126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>796</v>
+        <v>569</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -13057,13 +13192,13 @@
         <v>58905</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -13072,13 +13207,13 @@
         <v>173006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="M20" s="7">
         <v>220</v>
@@ -13087,13 +13222,13 @@
         <v>231911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -13176,13 +13311,13 @@
         <v>2086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -13197,7 +13332,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13218,7 +13353,7 @@
         <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -13233,7 +13368,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -13242,13 +13377,13 @@
         <v>4372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>839</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -13269,7 +13404,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -13293,7 +13428,7 @@
         <v>1874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>842</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
@@ -13314,13 +13449,13 @@
         <v>90377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -13344,13 +13479,13 @@
         <v>90377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -13365,13 +13500,13 @@
         <v>11487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -13380,13 +13515,13 @@
         <v>48783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -13395,13 +13530,13 @@
         <v>60269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -13437,7 +13572,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -13452,7 +13587,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -13467,13 +13602,13 @@
         <v>40453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -13482,13 +13617,13 @@
         <v>25023</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
       <c r="M28" s="7">
         <v>68</v>
@@ -13497,13 +13632,13 @@
         <v>65476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13518,13 +13653,13 @@
         <v>70731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -13533,13 +13668,13 @@
         <v>118397</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="M29" s="7">
         <v>192</v>
@@ -13548,13 +13683,13 @@
         <v>189128</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13628,7 +13763,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -13652,7 +13787,7 @@
         <v>827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
@@ -13679,7 +13814,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -13688,10 +13823,10 @@
         <v>7231</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>44</v>
@@ -13709,7 +13844,7 @@
         <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>848</v>
+        <v>879</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13727,10 +13862,10 @@
         <v>246</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -13745,7 +13880,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -13760,7 +13895,7 @@
         <v>164</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>850</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13775,13 +13910,13 @@
         <v>80397</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>852</v>
+        <v>883</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>853</v>
+        <v>884</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -13805,13 +13940,13 @@
         <v>80398</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>854</v>
+        <v>885</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>855</v>
+        <v>886</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13826,13 +13961,13 @@
         <v>22802</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="H35" s="7">
         <v>67</v>
@@ -13841,13 +13976,13 @@
         <v>77992</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>861</v>
+        <v>892</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
       <c r="M35" s="7">
         <v>91</v>
@@ -13856,13 +13991,13 @@
         <v>100794</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>863</v>
+        <v>894</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>865</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13883,7 +14018,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>866</v>
+        <v>559</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -13913,7 +14048,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13928,13 +14063,13 @@
         <v>55997</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -13943,13 +14078,13 @@
         <v>42262</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -13958,13 +14093,13 @@
         <v>98260</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13979,13 +14114,13 @@
         <v>87221</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
       <c r="H38" s="7">
         <v>116</v>
@@ -13994,13 +14129,13 @@
         <v>120295</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="M38" s="7">
         <v>195</v>
@@ -14009,13 +14144,13 @@
         <v>207516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>885</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -14083,13 +14218,13 @@
         <v>1511</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -14104,7 +14239,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -14113,13 +14248,13 @@
         <v>2425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -14134,13 +14269,13 @@
         <v>2067</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -14155,7 +14290,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -14170,7 +14305,7 @@
         <v>206</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -14206,7 +14341,7 @@
         <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -14221,7 +14356,7 @@
         <v>20</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -14236,13 +14371,13 @@
         <v>52434</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -14257,7 +14392,7 @@
         <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M43" s="7">
         <v>55</v>
@@ -14266,13 +14401,13 @@
         <v>52434</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>894</v>
+        <v>924</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>895</v>
+        <v>925</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>896</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -14287,13 +14422,13 @@
         <v>6093</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>897</v>
+        <v>427</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -14302,13 +14437,13 @@
         <v>44373</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -14317,13 +14452,13 @@
         <v>50466</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -14344,7 +14479,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -14359,7 +14494,7 @@
         <v>20</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -14368,13 +14503,13 @@
         <v>888</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -14389,13 +14524,13 @@
         <v>31910</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>909</v>
+        <v>938</v>
       </c>
       <c r="H46" s="7">
         <v>33</v>
@@ -14404,13 +14539,13 @@
         <v>30592</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
       <c r="M46" s="7">
         <v>65</v>
@@ -14419,13 +14554,13 @@
         <v>62502</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -14440,13 +14575,13 @@
         <v>34636</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="H47" s="7">
         <v>76</v>
@@ -14455,10 +14590,10 @@
         <v>72527</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>377</v>
@@ -14470,13 +14605,13 @@
         <v>107164</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -14550,7 +14685,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -14565,7 +14700,7 @@
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -14580,7 +14715,7 @@
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14601,7 +14736,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -14616,7 +14751,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -14631,7 +14766,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14652,7 +14787,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>515</v>
+        <v>953</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -14667,7 +14802,7 @@
         <v>20</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -14697,13 +14832,13 @@
         <v>95153</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -14718,7 +14853,7 @@
         <v>20</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="M52" s="7">
         <v>96</v>
@@ -14727,13 +14862,13 @@
         <v>95153</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>927</v>
+        <v>957</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>928</v>
+        <v>958</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>929</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -14748,13 +14883,13 @@
         <v>4042</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>931</v>
+        <v>961</v>
       </c>
       <c r="H53" s="7">
         <v>49</v>
@@ -14763,13 +14898,13 @@
         <v>54289</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>932</v>
+        <v>962</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>933</v>
+        <v>963</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="M53" s="7">
         <v>53</v>
@@ -14778,13 +14913,13 @@
         <v>58331</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>935</v>
+        <v>965</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>936</v>
+        <v>966</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14805,7 +14940,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -14820,7 +14955,7 @@
         <v>20</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -14835,7 +14970,7 @@
         <v>20</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14850,13 +14985,13 @@
         <v>5889</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>938</v>
+        <v>968</v>
       </c>
       <c r="H55" s="7">
         <v>18</v>
@@ -14865,13 +15000,13 @@
         <v>19405</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>939</v>
+        <v>969</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>940</v>
+        <v>970</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>941</v>
+        <v>971</v>
       </c>
       <c r="M55" s="7">
         <v>24</v>
@@ -14880,13 +15015,13 @@
         <v>25295</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>943</v>
+        <v>973</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14901,13 +15036,13 @@
         <v>56643</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>944</v>
+        <v>974</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>945</v>
+        <v>975</v>
       </c>
       <c r="H56" s="7">
         <v>93</v>
@@ -14916,13 +15051,13 @@
         <v>93728</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>946</v>
+        <v>976</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>947</v>
+        <v>977</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>948</v>
+        <v>978</v>
       </c>
       <c r="M56" s="7">
         <v>147</v>
@@ -14931,13 +15066,13 @@
         <v>150371</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -15011,7 +15146,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>952</v>
+        <v>436</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -15086,7 +15221,7 @@
         <v>1006</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>12</v>
@@ -15113,7 +15248,7 @@
         <v>362</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -15128,7 +15263,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
@@ -15143,7 +15278,7 @@
         <v>17</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>954</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -15158,10 +15293,10 @@
         <v>190075</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>28</v>
@@ -15179,7 +15314,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="M61" s="7">
         <v>173</v>
@@ -15188,13 +15323,13 @@
         <v>191280</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -15209,13 +15344,13 @@
         <v>10850</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="H62" s="7">
         <v>78</v>
@@ -15224,13 +15359,13 @@
         <v>90818</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="M62" s="7">
         <v>88</v>
@@ -15239,13 +15374,13 @@
         <v>101668</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -15281,7 +15416,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -15290,7 +15425,7 @@
         <v>1067</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>12</v>
@@ -15311,13 +15446,13 @@
         <v>46900</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>969</v>
+        <v>565</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>970</v>
+        <v>997</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>660</v>
+        <v>689</v>
       </c>
       <c r="H64" s="7">
         <v>44</v>
@@ -15326,13 +15461,13 @@
         <v>46138</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>973</v>
+        <v>1000</v>
       </c>
       <c r="M64" s="7">
         <v>83</v>
@@ -15341,13 +15476,13 @@
         <v>93038</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>975</v>
+        <v>1002</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>976</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -15362,13 +15497,13 @@
         <v>135921</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>977</v>
+        <v>1004</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="H65" s="7">
         <v>206</v>
@@ -15377,10 +15512,10 @@
         <v>211696</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>149</v>
@@ -15392,13 +15527,13 @@
         <v>347616</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>981</v>
+        <v>1008</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>983</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -15487,7 +15622,7 @@
         <v>386</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>984</v>
+        <v>1011</v>
       </c>
       <c r="M67" s="7">
         <v>5</v>
@@ -15496,7 +15631,7 @@
         <v>5116</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>651</v>
+        <v>434</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>159</v>
@@ -15523,7 +15658,7 @@
         <v>77</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -15535,10 +15670,10 @@
         <v>273</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>518</v>
+        <v>1013</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="M68" s="7">
         <v>11</v>
@@ -15550,10 +15685,10 @@
         <v>385</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -15568,13 +15703,13 @@
         <v>5052</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -15589,7 +15724,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="M69" s="7">
         <v>6</v>
@@ -15619,13 +15754,13 @@
         <v>196728</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -15649,13 +15784,13 @@
         <v>197813</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>994</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -15670,13 +15805,13 @@
         <v>20690</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="H71" s="7">
         <v>103</v>
@@ -15685,13 +15820,13 @@
         <v>123496</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="M71" s="7">
         <v>124</v>
@@ -15700,13 +15835,13 @@
         <v>144186</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -15775,10 +15910,10 @@
         <v>91</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="H73" s="7">
         <v>52</v>
@@ -15787,13 +15922,13 @@
         <v>54325</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="M73" s="7">
         <v>138</v>
@@ -15802,13 +15937,13 @@
         <v>143771</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -15823,13 +15958,13 @@
         <v>164910</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="H74" s="7">
         <v>294</v>
@@ -15838,13 +15973,13 @@
         <v>312797</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="M74" s="7">
         <v>448</v>
@@ -15853,13 +15988,13 @@
         <v>477706</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -15927,7 +16062,7 @@
         <v>5362</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>510</v>
+        <v>839</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>333</v>
@@ -15984,7 +16119,7 @@
         <v>115</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>517</v>
+        <v>657</v>
       </c>
       <c r="H77" s="7">
         <v>22</v>
@@ -15993,13 +16128,13 @@
         <v>22685</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="M77" s="7">
         <v>37</v>
@@ -16014,7 +16149,7 @@
         <v>14</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -16035,7 +16170,7 @@
         <v>115</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="H78" s="7">
         <v>5</v>
@@ -16044,7 +16179,7 @@
         <v>5327</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>510</v>
+        <v>839</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>333</v>
@@ -16059,7 +16194,7 @@
         <v>22420</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>651</v>
+        <v>434</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>70</v>
@@ -16080,13 +16215,13 @@
         <v>977852</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
@@ -16101,7 +16236,7 @@
         <v>403</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="M79" s="7">
         <v>950</v>
@@ -16110,13 +16245,13 @@
         <v>981146</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -16134,10 +16269,10 @@
         <v>33</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="H80" s="7">
         <v>497</v>
@@ -16146,13 +16281,13 @@
         <v>569431</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="M80" s="7">
         <v>593</v>
@@ -16161,13 +16296,13 @@
         <v>662276</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -16182,13 +16317,13 @@
         <v>2795</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>706</v>
+        <v>735</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="H81" s="7">
         <v>4</v>
@@ -16212,7 +16347,7 @@
         <v>6716</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>405</v>
@@ -16233,13 +16368,13 @@
         <v>338268</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="H82" s="7">
         <v>299</v>
@@ -16248,13 +16383,13 @@
         <v>308383</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="M82" s="7">
         <v>616</v>
@@ -16263,13 +16398,13 @@
         <v>646650</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -16284,13 +16419,13 @@
         <v>698479</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="H83" s="7">
         <v>1182</v>
@@ -16299,13 +16434,13 @@
         <v>1213801</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>1044</v>
+        <v>583</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="M83" s="7">
         <v>1822</v>
@@ -16314,13 +16449,13 @@
         <v>1912280</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>1048</v>
+        <v>1075</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>1049</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
